--- a/dist/static/G14.xlsx
+++ b/dist/static/G14.xlsx
@@ -18,53 +18,13 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>可填写微信号或手机号</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,28 +128,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">             室号
+    <t>网址：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://fgj.wuhan.gov.cn/zz_spfxmcx_fang.jspx?dengJh=%E5%A4%8F1800093&amp;houseDengJh=%E5%A4%8F0006778</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G14总人数=楼层*室号-4（物业管理用房，配电房，2个风井）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31*9-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>275户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李琼2406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lqbravo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂晓凯1501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxid_2920939209522</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         室号
 楼层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网址：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://fgj.wuhan.gov.cn/zz_spfxmcx_fang.jspx?dengJh=%E5%A4%8F1800093&amp;houseDengJh=%E5%A4%8F0006778</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G14总人数=楼层*室号-4（物业管理用房，配电房，2个风井）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31*9-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>275户</t>
+    <t>G14 2509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gluck2333</t>
+  </si>
+  <si>
+    <t>G14-2208</t>
+  </si>
+  <si>
+    <t>liu446778342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G14-2408</t>
+  </si>
+  <si>
+    <t>Sjcnjf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,21 +212,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -264,14 +250,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -283,12 +272,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -313,7 +313,7 @@
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>112964</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>113426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -606,291 +606,869 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="1"/>
+    <col min="1" max="1" width="9.25" style="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6">
+        <v>5</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6">
+        <v>6</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6">
+        <v>7</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6">
+        <v>9</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="U1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="5">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5">
-        <v>4</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5">
-        <v>5</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5">
-        <v>6</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5">
-        <v>7</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5">
-        <v>9</v>
-      </c>
-      <c r="S1" s="5"/>
-      <c r="U1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="U3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+    </row>
+    <row r="24" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="M24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -906,12 +1484,16 @@
     <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A3:S33">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="V1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/dist/static/G14.xlsx
+++ b/dist/static/G14.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,42 @@
   </si>
   <si>
     <t>Sjcnjf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhaoyingaio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c520xap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuxi3798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xwyzlyyzyq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxid_qyvag6ts1vqz22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dzq1202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmm19910619</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff_-1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chan457609695</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,12 +258,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -252,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,6 +305,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -272,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -313,7 +358,7 @@
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>112964</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>113426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -607,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,45 +666,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="7">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7">
         <v>4</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7">
         <v>5</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7">
         <v>6</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7">
         <v>7</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7">
         <v>8</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7">
         <v>9</v>
       </c>
-      <c r="S1" s="6"/>
+      <c r="S1" s="7"/>
       <c r="U1" s="1" t="s">
         <v>34</v>
       </c>
@@ -668,7 +713,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,27 +773,27 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
       <c r="U3" s="1" t="s">
         <v>37</v>
       </c>
@@ -757,718 +802,758 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="4">
+        <v>308</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="4">
+        <v>1704</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="4">
+        <v>1708</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="4">
+        <v>1908</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7" t="s">
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="Q24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
+      <c r="B25" s="8">
+        <v>2301</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="8">
+        <v>2305</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="Q26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="S27" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="8">
+        <v>2603</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="4">
+        <v>2605</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="8">
+        <v>2803</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1484,7 +1569,7 @@
     <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:S33">
+  <conditionalFormatting sqref="A3:S31 A32:I33 J32:K34 L32:S33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
